--- a/Project Tracker.xlsx
+++ b/Project Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datascience\customer sentimental analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71414065-80FD-49E4-A0AD-06D06E39B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24055EBB-4F8C-478D-B929-E2897C1B1C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1477BCB-0039-4DB5-8958-5962EA43B76A}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1069,7 @@
         <v>43731</v>
       </c>
       <c r="F7" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
